--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_12_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_12_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.424413212020219, 5.041259186428936]</t>
+          <t>[4.4276135080261305, 5.038058890423024]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.004743634913621619, 0.33394681280490524]</t>
+          <t>[-0.004641302176451312, 0.33384448006773493]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.05648557960120115</v>
+        <v>0.05634240171646132</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05648557960120115</v>
+        <v>0.05634240171646132</v>
       </c>
       <c r="W2" t="n">
         <v>20.02814814814873</v>
